--- a/Bon Blanko/Desa Pameungpeuk/Bon Blanko Desa Pameungpeuk (156).xlsx
+++ b/Bon Blanko/Desa Pameungpeuk/Bon Blanko Desa Pameungpeuk (156).xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="262">
   <si>
     <t>No</t>
   </si>
@@ -732,6 +731,75 @@
   </si>
   <si>
     <t>ASEP ZAM ZAM</t>
+  </si>
+  <si>
+    <t>ADE HOPIPAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATAR NURLAELA </t>
+  </si>
+  <si>
+    <t>16812/2023</t>
+  </si>
+  <si>
+    <t>KRISNA CAHYANI</t>
+  </si>
+  <si>
+    <t>ASMU</t>
+  </si>
+  <si>
+    <t>HILMAN FARID</t>
+  </si>
+  <si>
+    <t>16786/2023</t>
+  </si>
+  <si>
+    <t>DINI TRIANI</t>
+  </si>
+  <si>
+    <t>MUHAMAD S.</t>
+  </si>
+  <si>
+    <t>ADE SITI MARYAM</t>
+  </si>
+  <si>
+    <t>LIGA NUGRAHA</t>
+  </si>
+  <si>
+    <t>16810/2023</t>
+  </si>
+  <si>
+    <t>UDUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDUL KADIR </t>
+  </si>
+  <si>
+    <t>OMAH</t>
+  </si>
+  <si>
+    <t>TANU SUPARNA</t>
+  </si>
+  <si>
+    <t>ERIS RISNAWATI</t>
+  </si>
+  <si>
+    <t>ENAH NURJANAH</t>
+  </si>
+  <si>
+    <t>TINI KARTINI</t>
+  </si>
+  <si>
+    <t>16787/2023</t>
+  </si>
+  <si>
+    <t>TJUTJU RAJATI</t>
+  </si>
+  <si>
+    <t>ENUNG NURWIATI</t>
+  </si>
+  <si>
+    <t>IKA NURHAYATI</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1314,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1258,15 +1326,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1610,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,40 +1691,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1703,17 +1768,17 @@
       <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>68691</v>
+      <c r="B7" s="3">
+        <v>66847</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3">
-        <v>9696</v>
+        <v>9595</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1722,16 +1787,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="3">
-        <v>71958</v>
+        <v>66855</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="E8" s="3">
-        <v>9797</v>
+        <v>9600</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1739,17 +1804,17 @@
       <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
-        <v>71959</v>
+      <c r="B9" s="2">
+        <v>68691</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3">
-        <v>9797</v>
+        <v>9696</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1758,10 +1823,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>71960</v>
+        <v>71958</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
@@ -1775,17 +1840,17 @@
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
-        <v>71962</v>
+      <c r="B11" s="3">
+        <v>71959</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3">
-        <v>9798</v>
+        <v>9797</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1793,17 +1858,17 @@
       <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
-        <v>71963</v>
+      <c r="B12" s="3">
+        <v>71960</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3">
-        <v>9798</v>
+        <v>9797</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1811,17 +1876,17 @@
       <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="4">
-        <v>71966</v>
+      <c r="B13" s="2">
+        <v>71962</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3">
-        <v>9799</v>
+        <v>9798</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1830,16 +1895,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>71969</v>
+        <v>71963</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3">
-        <v>9799</v>
+        <v>9798</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1847,11 +1912,11 @@
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
-        <v>71971</v>
+      <c r="B15" s="4">
+        <v>71966</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>20</v>
@@ -1866,16 +1931,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>71972</v>
+        <v>71969</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3">
-        <v>9800</v>
+        <v>9799</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -1884,16 +1949,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>71974</v>
+        <v>71971</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3">
-        <v>9800</v>
+        <v>9799</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -1901,17 +1966,17 @@
       <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="4">
-        <v>71975</v>
+      <c r="B18" s="2">
+        <v>71972</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
-        <v>9801</v>
+        <v>9800</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -1919,17 +1984,17 @@
       <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="4">
-        <v>71977</v>
+      <c r="B19" s="2">
+        <v>71974</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3">
-        <v>9802</v>
+        <v>9800</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -1938,16 +2003,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>71979</v>
+        <v>71975</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="3">
-        <v>9803</v>
+        <v>9801</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -1956,16 +2021,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="4">
-        <v>71980</v>
+        <v>71977</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3">
-        <v>9804</v>
+        <v>9802</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1973,17 +2038,17 @@
       <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="3">
-        <v>71982</v>
+      <c r="B22" s="4">
+        <v>71979</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3">
-        <v>9805</v>
+        <v>9803</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -1991,17 +2056,17 @@
       <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="2">
-        <v>71983</v>
+      <c r="B23" s="4">
+        <v>71980</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3">
-        <v>9806</v>
+        <v>9804</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -2009,17 +2074,17 @@
       <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
-        <v>71984</v>
+      <c r="B24" s="3">
+        <v>71982</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E24" s="3">
-        <v>9807</v>
+        <v>9805</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -2028,16 +2093,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="2">
-        <v>71985</v>
+        <v>71983</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3">
-        <v>9808</v>
+        <v>9806</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -2046,16 +2111,16 @@
         <v>21</v>
       </c>
       <c r="B26" s="2">
-        <v>71987</v>
+        <v>71984</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E26" s="3">
-        <v>9809</v>
+        <v>9807</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -2063,17 +2128,17 @@
       <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
-        <v>71988</v>
+      <c r="B27" s="2">
+        <v>71985</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E27" s="3">
-        <v>9810</v>
+        <v>9808</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -2081,17 +2146,17 @@
       <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="3">
-        <v>71989</v>
+      <c r="B28" s="2">
+        <v>71987</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E28" s="3">
-        <v>9811</v>
+        <v>9809</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -2100,16 +2165,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="3">
-        <v>71991</v>
+        <v>71988</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3">
-        <v>9812</v>
+        <v>9810</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -2118,16 +2183,16 @@
         <v>25</v>
       </c>
       <c r="B30" s="3">
-        <v>71993</v>
+        <v>71989</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E30" s="3">
-        <v>9813</v>
+        <v>9811</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -2136,16 +2201,16 @@
         <v>26</v>
       </c>
       <c r="B31" s="3">
-        <v>71996</v>
+        <v>71991</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3">
-        <v>9814</v>
+        <v>9812</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -2154,16 +2219,16 @@
         <v>27</v>
       </c>
       <c r="B32" s="3">
-        <v>71999</v>
+        <v>71993</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E32" s="3">
-        <v>9815</v>
+        <v>9813</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -2171,17 +2236,17 @@
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
-        <v>72000</v>
+      <c r="B33" s="3">
+        <v>71996</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E33" s="3">
-        <v>9816</v>
+        <v>9814</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -2189,17 +2254,17 @@
       <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
-        <v>72001</v>
+      <c r="B34" s="3">
+        <v>71999</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3">
-        <v>9817</v>
+        <v>9815</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -2208,16 +2273,16 @@
         <v>30</v>
       </c>
       <c r="B35" s="2">
-        <v>72002</v>
+        <v>72000</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3">
-        <v>9818</v>
+        <v>9816</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -2226,16 +2291,16 @@
         <v>31</v>
       </c>
       <c r="B36" s="2">
-        <v>72003</v>
+        <v>72001</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" s="3">
-        <v>9819</v>
+        <v>9817</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -2244,16 +2309,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="2">
-        <v>72004</v>
+        <v>72002</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E37" s="3">
-        <v>9820</v>
+        <v>9818</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -2262,16 +2327,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="2">
-        <v>72005</v>
+        <v>72003</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E38" s="3">
-        <v>9821</v>
+        <v>9819</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -2279,17 +2344,17 @@
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="3">
-        <v>72006</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>66</v>
+      <c r="B39" s="2">
+        <v>72004</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E39" s="3">
-        <v>9822</v>
+        <v>9820</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -2297,17 +2362,17 @@
       <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="4">
-        <v>72007</v>
+      <c r="B40" s="2">
+        <v>72005</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E40" s="3">
-        <v>9823</v>
+        <v>9821</v>
       </c>
       <c r="F40" s="3"/>
     </row>
@@ -2315,17 +2380,17 @@
       <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="4">
-        <v>72008</v>
+      <c r="B41" s="3">
+        <v>72006</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3">
-        <v>9824</v>
+        <v>9822</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -2334,16 +2399,16 @@
         <v>37</v>
       </c>
       <c r="B42" s="4">
-        <v>72010</v>
+        <v>72007</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E42" s="3">
-        <v>9825</v>
+        <v>9823</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -2351,17 +2416,17 @@
       <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="7">
-        <v>77455</v>
+      <c r="B43" s="4">
+        <v>72008</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E43" s="3">
-        <v>11156</v>
+        <v>9824</v>
       </c>
       <c r="F43" s="3"/>
     </row>
@@ -2369,17 +2434,17 @@
       <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="7">
-        <v>77459</v>
+      <c r="B44" s="4">
+        <v>72010</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E44" s="3">
-        <v>11157</v>
+        <v>9825</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -2387,17 +2452,17 @@
       <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="7">
-        <v>77526</v>
+      <c r="B45" s="3">
+        <v>75419</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E45" s="3">
-        <v>11155</v>
+        <v>10011</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -2405,17 +2470,17 @@
       <c r="A46" s="2">
         <v>41</v>
       </c>
-      <c r="B46" s="7">
-        <v>77575</v>
+      <c r="B46" s="3">
+        <v>75420</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E46" s="3">
-        <v>11155</v>
+        <v>10117</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -2424,16 +2489,16 @@
         <v>42</v>
       </c>
       <c r="B47" s="3">
-        <v>77894</v>
+        <v>75430</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="E47" s="3">
-        <v>11154</v>
+        <v>10014</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -2441,17 +2506,17 @@
       <c r="A48" s="2">
         <v>43</v>
       </c>
-      <c r="B48" s="7">
-        <v>77898</v>
+      <c r="B48" s="3">
+        <v>75433</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="E48" s="3">
-        <v>11209</v>
+        <v>10014</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -2459,17 +2524,17 @@
       <c r="A49" s="2">
         <v>44</v>
       </c>
-      <c r="B49" s="7">
-        <v>77899</v>
+      <c r="B49" s="3">
+        <v>75446</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="E49" s="3">
-        <v>11208</v>
+        <v>10014</v>
       </c>
       <c r="F49" s="3"/>
     </row>
@@ -2477,17 +2542,17 @@
       <c r="A50" s="2">
         <v>45</v>
       </c>
-      <c r="B50" s="7">
-        <v>77900</v>
+      <c r="B50" s="3">
+        <v>75451</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>86</v>
+        <v>248</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="E50" s="3">
-        <v>11208</v>
+        <v>10015</v>
       </c>
       <c r="F50" s="3"/>
     </row>
@@ -2495,17 +2560,17 @@
       <c r="A51" s="2">
         <v>46</v>
       </c>
-      <c r="B51" s="7">
-        <v>77901</v>
+      <c r="B51" s="3">
+        <v>75453</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="E51" s="3">
-        <v>11208</v>
+        <v>10016</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -2513,17 +2578,17 @@
       <c r="A52" s="2">
         <v>47</v>
       </c>
-      <c r="B52" s="7">
-        <v>77952</v>
+      <c r="B52" s="3">
+        <v>75455</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="E52" s="3">
-        <v>11208</v>
+        <v>10016</v>
       </c>
       <c r="F52" s="3"/>
     </row>
@@ -2531,17 +2596,17 @@
       <c r="A53" s="2">
         <v>48</v>
       </c>
-      <c r="B53" s="7">
-        <v>78081</v>
+      <c r="B53" s="3">
+        <v>75457</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E53" s="3">
-        <v>11207</v>
+        <v>10028</v>
       </c>
       <c r="F53" s="3"/>
     </row>
@@ -2549,17 +2614,17 @@
       <c r="A54" s="2">
         <v>49</v>
       </c>
-      <c r="B54" s="7">
-        <v>78082</v>
+      <c r="B54" s="3">
+        <v>75459</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E54" s="3">
-        <v>11207</v>
+        <v>10028</v>
       </c>
       <c r="F54" s="3"/>
     </row>
@@ -2567,17 +2632,17 @@
       <c r="A55" s="2">
         <v>50</v>
       </c>
-      <c r="B55" s="7">
-        <v>78083</v>
+      <c r="B55" s="3">
+        <v>75460</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>92</v>
+        <v>254</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E55" s="3">
-        <v>11206</v>
+        <v>10028</v>
       </c>
       <c r="F55" s="3"/>
     </row>
@@ -2585,17 +2650,17 @@
       <c r="A56" s="2">
         <v>51</v>
       </c>
-      <c r="B56" s="7">
-        <v>78084</v>
+      <c r="B56" s="3">
+        <v>75461</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E56" s="3">
-        <v>11206</v>
+        <v>10028</v>
       </c>
       <c r="F56" s="3"/>
     </row>
@@ -2603,17 +2668,17 @@
       <c r="A57" s="2">
         <v>52</v>
       </c>
-      <c r="B57" s="7">
-        <v>78085</v>
+      <c r="B57" s="3">
+        <v>75462</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>11203</v>
+        <v>10030</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -2621,17 +2686,17 @@
       <c r="A58" s="2">
         <v>53</v>
       </c>
-      <c r="B58" s="7">
-        <v>78086</v>
+      <c r="B58" s="3">
+        <v>75463</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="E58" s="3">
-        <v>11206</v>
+        <v>10033</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -2639,17 +2704,17 @@
       <c r="A59" s="2">
         <v>54</v>
       </c>
-      <c r="B59" s="7">
-        <v>78087</v>
+      <c r="B59" s="3">
+        <v>75465</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="E59" s="3">
-        <v>11205</v>
+        <v>10033</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -2657,17 +2722,17 @@
       <c r="A60" s="2">
         <v>55</v>
       </c>
-      <c r="B60" s="7">
-        <v>78088</v>
+      <c r="B60" s="3">
+        <v>75467</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="E60" s="3">
-        <v>11204</v>
+        <v>10033</v>
       </c>
       <c r="F60" s="3"/>
     </row>
@@ -2675,17 +2740,17 @@
       <c r="A61" s="2">
         <v>56</v>
       </c>
-      <c r="B61" s="7">
-        <v>78274</v>
+      <c r="B61" s="3">
+        <v>75469</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="E61" s="3">
-        <v>11202</v>
+        <v>10033</v>
       </c>
       <c r="F61" s="3"/>
     </row>
@@ -2693,17 +2758,17 @@
       <c r="A62" s="2">
         <v>57</v>
       </c>
-      <c r="B62" s="7">
-        <v>78277</v>
+      <c r="B62" s="5">
+        <v>77455</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E62" s="3">
-        <v>11201</v>
+        <v>11156</v>
       </c>
       <c r="F62" s="3"/>
     </row>
@@ -2711,17 +2776,17 @@
       <c r="A63" s="2">
         <v>58</v>
       </c>
-      <c r="B63" s="7">
-        <v>78278</v>
+      <c r="B63" s="5">
+        <v>77459</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E63" s="3">
-        <v>11201</v>
+        <v>11157</v>
       </c>
       <c r="F63" s="3"/>
     </row>
@@ -2729,17 +2794,17 @@
       <c r="A64" s="2">
         <v>59</v>
       </c>
-      <c r="B64" s="7">
-        <v>78279</v>
+      <c r="B64" s="5">
+        <v>77526</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E64" s="3">
-        <v>11200</v>
+        <v>11155</v>
       </c>
       <c r="F64" s="3"/>
     </row>
@@ -2747,17 +2812,17 @@
       <c r="A65" s="2">
         <v>60</v>
       </c>
-      <c r="B65" s="7">
-        <v>78284</v>
+      <c r="B65" s="5">
+        <v>77575</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E65" s="3">
-        <v>11199</v>
+        <v>11155</v>
       </c>
       <c r="F65" s="3"/>
     </row>
@@ -2765,17 +2830,17 @@
       <c r="A66" s="2">
         <v>61</v>
       </c>
-      <c r="B66" s="7">
-        <v>78285</v>
+      <c r="B66" s="3">
+        <v>77894</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E66" s="3">
-        <v>11199</v>
+        <v>11154</v>
       </c>
       <c r="F66" s="3"/>
     </row>
@@ -2783,17 +2848,17 @@
       <c r="A67" s="2">
         <v>62</v>
       </c>
-      <c r="B67" s="7">
-        <v>78287</v>
+      <c r="B67" s="5">
+        <v>77898</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E67" s="3">
-        <v>11198</v>
+        <v>11209</v>
       </c>
       <c r="F67" s="3"/>
     </row>
@@ -2801,17 +2866,17 @@
       <c r="A68" s="2">
         <v>63</v>
       </c>
-      <c r="B68" s="7">
-        <v>78290</v>
+      <c r="B68" s="5">
+        <v>77899</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E68" s="3">
-        <v>11409</v>
+        <v>11208</v>
       </c>
       <c r="F68" s="3"/>
     </row>
@@ -2819,17 +2884,17 @@
       <c r="A69" s="2">
         <v>64</v>
       </c>
-      <c r="B69" s="7">
-        <v>78291</v>
+      <c r="B69" s="5">
+        <v>77900</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E69" s="3">
-        <v>11197</v>
+        <v>11208</v>
       </c>
       <c r="F69" s="3"/>
     </row>
@@ -2837,17 +2902,17 @@
       <c r="A70" s="2">
         <v>65</v>
       </c>
-      <c r="B70" s="7">
-        <v>78293</v>
+      <c r="B70" s="5">
+        <v>77901</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E70" s="3">
-        <v>11197</v>
+        <v>11208</v>
       </c>
       <c r="F70" s="3"/>
     </row>
@@ -2855,17 +2920,17 @@
       <c r="A71" s="2">
         <v>66</v>
       </c>
-      <c r="B71" s="7">
-        <v>78294</v>
+      <c r="B71" s="5">
+        <v>77952</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E71" s="3">
-        <v>11196</v>
+        <v>11208</v>
       </c>
       <c r="F71" s="3"/>
     </row>
@@ -2873,17 +2938,17 @@
       <c r="A72" s="2">
         <v>67</v>
       </c>
-      <c r="B72" s="7">
-        <v>78296</v>
+      <c r="B72" s="5">
+        <v>78081</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E72" s="3">
-        <v>11195</v>
+        <v>11207</v>
       </c>
       <c r="F72" s="3"/>
     </row>
@@ -2891,17 +2956,17 @@
       <c r="A73" s="2">
         <v>68</v>
       </c>
-      <c r="B73" s="7">
-        <v>78298</v>
+      <c r="B73" s="5">
+        <v>78082</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E73" s="3">
-        <v>91518</v>
+        <v>11207</v>
       </c>
       <c r="F73" s="3"/>
     </row>
@@ -2909,17 +2974,17 @@
       <c r="A74" s="2">
         <v>69</v>
       </c>
-      <c r="B74" s="7">
-        <v>78299</v>
+      <c r="B74" s="5">
+        <v>78083</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E74" s="3">
-        <v>11194</v>
+        <v>11206</v>
       </c>
       <c r="F74" s="3"/>
     </row>
@@ -2927,17 +2992,17 @@
       <c r="A75" s="2">
         <v>70</v>
       </c>
-      <c r="B75" s="7">
-        <v>78301</v>
+      <c r="B75" s="5">
+        <v>78084</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E75" s="3">
-        <v>11193</v>
+        <v>11206</v>
       </c>
       <c r="F75" s="3"/>
     </row>
@@ -2945,17 +3010,17 @@
       <c r="A76" s="2">
         <v>71</v>
       </c>
-      <c r="B76" s="7">
-        <v>79610</v>
+      <c r="B76" s="5">
+        <v>78085</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E76" s="3">
-        <v>11185</v>
+        <v>11203</v>
       </c>
       <c r="F76" s="3"/>
     </row>
@@ -2963,17 +3028,17 @@
       <c r="A77" s="2">
         <v>72</v>
       </c>
-      <c r="B77" s="7">
-        <v>79611</v>
+      <c r="B77" s="5">
+        <v>78086</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E77" s="3">
-        <v>11184</v>
+        <v>11206</v>
       </c>
       <c r="F77" s="3"/>
     </row>
@@ -2981,17 +3046,17 @@
       <c r="A78" s="2">
         <v>73</v>
       </c>
-      <c r="B78" s="7">
-        <v>79612</v>
+      <c r="B78" s="5">
+        <v>78087</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E78" s="3">
-        <v>11184</v>
+        <v>11205</v>
       </c>
       <c r="F78" s="3"/>
     </row>
@@ -2999,17 +3064,17 @@
       <c r="A79" s="2">
         <v>74</v>
       </c>
-      <c r="B79" s="7">
-        <v>79613</v>
+      <c r="B79" s="5">
+        <v>78088</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E79" s="3">
-        <v>11191</v>
+        <v>11204</v>
       </c>
       <c r="F79" s="3"/>
     </row>
@@ -3017,17 +3082,17 @@
       <c r="A80" s="2">
         <v>75</v>
       </c>
-      <c r="B80" s="7">
-        <v>79614</v>
+      <c r="B80" s="5">
+        <v>78274</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E80" s="3">
-        <v>11192</v>
+        <v>11202</v>
       </c>
       <c r="F80" s="3"/>
     </row>
@@ -3035,17 +3100,17 @@
       <c r="A81" s="2">
         <v>76</v>
       </c>
-      <c r="B81" s="7">
-        <v>79621</v>
+      <c r="B81" s="5">
+        <v>78277</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E81" s="3">
-        <v>11190</v>
+        <v>11201</v>
       </c>
       <c r="F81" s="3"/>
     </row>
@@ -3053,17 +3118,17 @@
       <c r="A82" s="2">
         <v>77</v>
       </c>
-      <c r="B82" s="7">
-        <v>79622</v>
+      <c r="B82" s="5">
+        <v>78278</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E82" s="3">
-        <v>11189</v>
+        <v>11201</v>
       </c>
       <c r="F82" s="3"/>
     </row>
@@ -3071,17 +3136,17 @@
       <c r="A83" s="2">
         <v>78</v>
       </c>
-      <c r="B83" s="7">
-        <v>79623</v>
+      <c r="B83" s="5">
+        <v>78279</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E83" s="3">
-        <v>11158</v>
+        <v>11200</v>
       </c>
       <c r="F83" s="3"/>
     </row>
@@ -3089,17 +3154,17 @@
       <c r="A84" s="2">
         <v>79</v>
       </c>
-      <c r="B84" s="7">
-        <v>79624</v>
+      <c r="B84" s="5">
+        <v>78284</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="E84" s="3">
-        <v>11187</v>
+        <v>11199</v>
       </c>
       <c r="F84" s="3"/>
     </row>
@@ -3107,17 +3172,17 @@
       <c r="A85" s="2">
         <v>80</v>
       </c>
-      <c r="B85" s="7">
-        <v>79652</v>
+      <c r="B85" s="5">
+        <v>78285</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E85" s="3">
-        <v>11186</v>
+        <v>11199</v>
       </c>
       <c r="F85" s="3"/>
     </row>
@@ -3125,17 +3190,17 @@
       <c r="A86" s="2">
         <v>81</v>
       </c>
-      <c r="B86" s="7">
-        <v>79654</v>
+      <c r="B86" s="5">
+        <v>78287</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E86" s="3">
-        <v>11187</v>
+        <v>11198</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -3143,17 +3208,17 @@
       <c r="A87" s="2">
         <v>82</v>
       </c>
-      <c r="B87" s="7">
-        <v>81678</v>
+      <c r="B87" s="5">
+        <v>78290</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="E87" s="3">
-        <v>11179</v>
+        <v>11409</v>
       </c>
       <c r="F87" s="3"/>
     </row>
@@ -3161,17 +3226,17 @@
       <c r="A88" s="2">
         <v>83</v>
       </c>
-      <c r="B88" s="7">
-        <v>81680</v>
+      <c r="B88" s="5">
+        <v>78291</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E88" s="3">
-        <v>11180</v>
+        <v>11197</v>
       </c>
       <c r="F88" s="3"/>
     </row>
@@ -3179,17 +3244,17 @@
       <c r="A89" s="2">
         <v>84</v>
       </c>
-      <c r="B89" s="7">
-        <v>81688</v>
+      <c r="B89" s="5">
+        <v>78293</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E89" s="3">
-        <v>11178</v>
+        <v>11197</v>
       </c>
       <c r="F89" s="3"/>
     </row>
@@ -3197,17 +3262,17 @@
       <c r="A90" s="2">
         <v>85</v>
       </c>
-      <c r="B90" s="7">
-        <v>81690</v>
+      <c r="B90" s="5">
+        <v>78294</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E90" s="3">
-        <v>11177</v>
+        <v>11196</v>
       </c>
       <c r="F90" s="3"/>
     </row>
@@ -3215,17 +3280,17 @@
       <c r="A91" s="2">
         <v>86</v>
       </c>
-      <c r="B91" s="7">
-        <v>81707</v>
+      <c r="B91" s="5">
+        <v>78296</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="E91" s="3">
-        <v>11176</v>
+        <v>11195</v>
       </c>
       <c r="F91" s="3"/>
     </row>
@@ -3233,17 +3298,17 @@
       <c r="A92" s="2">
         <v>87</v>
       </c>
-      <c r="B92" s="7">
-        <v>81732</v>
+      <c r="B92" s="5">
+        <v>78298</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="E92" s="3">
-        <v>11175</v>
+        <v>91518</v>
       </c>
       <c r="F92" s="3"/>
     </row>
@@ -3251,17 +3316,17 @@
       <c r="A93" s="2">
         <v>88</v>
       </c>
-      <c r="B93" s="7">
-        <v>81735</v>
+      <c r="B93" s="5">
+        <v>78299</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E93" s="3">
-        <v>11175</v>
+        <v>11194</v>
       </c>
       <c r="F93" s="3"/>
     </row>
@@ -3269,17 +3334,17 @@
       <c r="A94" s="2">
         <v>89</v>
       </c>
-      <c r="B94" s="7">
-        <v>81741</v>
+      <c r="B94" s="5">
+        <v>78301</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E94" s="3">
-        <v>11174</v>
+        <v>11193</v>
       </c>
       <c r="F94" s="3"/>
     </row>
@@ -3287,17 +3352,17 @@
       <c r="A95" s="2">
         <v>90</v>
       </c>
-      <c r="B95" s="7">
-        <v>81760</v>
+      <c r="B95" s="5">
+        <v>79610</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E95" s="3">
-        <v>11172</v>
+        <v>11185</v>
       </c>
       <c r="F95" s="3"/>
     </row>
@@ -3305,17 +3370,17 @@
       <c r="A96" s="2">
         <v>91</v>
       </c>
-      <c r="B96" s="7">
-        <v>81799</v>
+      <c r="B96" s="5">
+        <v>79611</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E96" s="3">
-        <v>11170</v>
+        <v>11184</v>
       </c>
       <c r="F96" s="3"/>
     </row>
@@ -3323,17 +3388,17 @@
       <c r="A97" s="2">
         <v>92</v>
       </c>
-      <c r="B97" s="7">
-        <v>81800</v>
+      <c r="B97" s="5">
+        <v>79612</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E97" s="3">
-        <v>11170</v>
+        <v>11184</v>
       </c>
       <c r="F97" s="3"/>
     </row>
@@ -3341,17 +3406,17 @@
       <c r="A98" s="2">
         <v>93</v>
       </c>
-      <c r="B98" s="7">
-        <v>81801</v>
+      <c r="B98" s="5">
+        <v>79613</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E98" s="3">
-        <v>11169</v>
+        <v>11191</v>
       </c>
       <c r="F98" s="3"/>
     </row>
@@ -3359,17 +3424,17 @@
       <c r="A99" s="2">
         <v>94</v>
       </c>
-      <c r="B99" s="7">
-        <v>81916</v>
+      <c r="B99" s="5">
+        <v>79614</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E99" s="3">
-        <v>11168</v>
+        <v>11192</v>
       </c>
       <c r="F99" s="3"/>
     </row>
@@ -3377,17 +3442,17 @@
       <c r="A100" s="2">
         <v>95</v>
       </c>
-      <c r="B100" s="7">
-        <v>81918</v>
+      <c r="B100" s="5">
+        <v>79621</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E100" s="3">
-        <v>11183</v>
+        <v>11190</v>
       </c>
       <c r="F100" s="3"/>
     </row>
@@ -3395,17 +3460,17 @@
       <c r="A101" s="2">
         <v>96</v>
       </c>
-      <c r="B101" s="7">
-        <v>81920</v>
+      <c r="B101" s="5">
+        <v>79622</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="E101" s="3">
-        <v>11167</v>
+        <v>11189</v>
       </c>
       <c r="F101" s="3"/>
     </row>
@@ -3413,17 +3478,17 @@
       <c r="A102" s="2">
         <v>97</v>
       </c>
-      <c r="B102" s="7">
-        <v>81922</v>
+      <c r="B102" s="5">
+        <v>79623</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E102" s="3">
-        <v>11166</v>
+        <v>11158</v>
       </c>
       <c r="F102" s="3"/>
     </row>
@@ -3431,17 +3496,17 @@
       <c r="A103" s="2">
         <v>98</v>
       </c>
-      <c r="B103" s="7">
-        <v>81929</v>
+      <c r="B103" s="5">
+        <v>79624</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E103" s="3">
-        <v>11410</v>
+        <v>11187</v>
       </c>
       <c r="F103" s="3"/>
     </row>
@@ -3449,17 +3514,17 @@
       <c r="A104" s="2">
         <v>99</v>
       </c>
-      <c r="B104" s="7">
-        <v>81932</v>
+      <c r="B104" s="5">
+        <v>79652</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E104" s="3">
-        <v>11165</v>
+        <v>11186</v>
       </c>
       <c r="F104" s="3"/>
     </row>
@@ -3467,17 +3532,17 @@
       <c r="A105" s="2">
         <v>100</v>
       </c>
-      <c r="B105" s="7">
-        <v>81935</v>
+      <c r="B105" s="5">
+        <v>79654</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E105" s="3">
-        <v>11164</v>
+        <v>11187</v>
       </c>
       <c r="F105" s="3"/>
     </row>
@@ -3485,17 +3550,17 @@
       <c r="A106" s="2">
         <v>101</v>
       </c>
-      <c r="B106" s="7">
-        <v>81937</v>
+      <c r="B106" s="5">
+        <v>81678</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="E106" s="3">
-        <v>11164</v>
+        <v>11179</v>
       </c>
       <c r="F106" s="3"/>
     </row>
@@ -3503,17 +3568,17 @@
       <c r="A107" s="2">
         <v>102</v>
       </c>
-      <c r="B107" s="7">
-        <v>81938</v>
+      <c r="B107" s="5">
+        <v>81680</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E107" s="3">
-        <v>11163</v>
+        <v>11180</v>
       </c>
       <c r="F107" s="3"/>
     </row>
@@ -3521,17 +3586,17 @@
       <c r="A108" s="2">
         <v>103</v>
       </c>
-      <c r="B108" s="7">
-        <v>81939</v>
+      <c r="B108" s="5">
+        <v>81688</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E108" s="3">
-        <v>11163</v>
+        <v>11178</v>
       </c>
       <c r="F108" s="3"/>
     </row>
@@ -3539,17 +3604,17 @@
       <c r="A109" s="2">
         <v>104</v>
       </c>
-      <c r="B109" s="7">
-        <v>81942</v>
+      <c r="B109" s="5">
+        <v>81690</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E109" s="3">
-        <v>11162</v>
+        <v>11177</v>
       </c>
       <c r="F109" s="3"/>
     </row>
@@ -3557,17 +3622,17 @@
       <c r="A110" s="2">
         <v>105</v>
       </c>
-      <c r="B110" s="7">
-        <v>81943</v>
+      <c r="B110" s="5">
+        <v>81707</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="E110" s="3">
-        <v>11162</v>
+        <v>11176</v>
       </c>
       <c r="F110" s="3"/>
     </row>
@@ -3575,17 +3640,17 @@
       <c r="A111" s="2">
         <v>106</v>
       </c>
-      <c r="B111" s="7">
-        <v>81944</v>
+      <c r="B111" s="5">
+        <v>81732</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="E111" s="3">
-        <v>11161</v>
+        <v>11175</v>
       </c>
       <c r="F111" s="3"/>
     </row>
@@ -3593,17 +3658,17 @@
       <c r="A112" s="2">
         <v>107</v>
       </c>
-      <c r="B112" s="7">
-        <v>81945</v>
+      <c r="B112" s="5">
+        <v>81735</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="E112" s="3">
-        <v>11161</v>
+        <v>11175</v>
       </c>
       <c r="F112" s="3"/>
     </row>
@@ -3611,17 +3676,17 @@
       <c r="A113" s="2">
         <v>108</v>
       </c>
-      <c r="B113" s="7">
-        <v>81949</v>
+      <c r="B113" s="5">
+        <v>81741</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="E113" s="3">
-        <v>11159</v>
+        <v>11174</v>
       </c>
       <c r="F113" s="3"/>
     </row>
@@ -3629,17 +3694,17 @@
       <c r="A114" s="2">
         <v>109</v>
       </c>
-      <c r="B114" s="7">
-        <v>83198</v>
+      <c r="B114" s="5">
+        <v>81760</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E114" s="3">
-        <v>11181</v>
+        <v>11172</v>
       </c>
       <c r="F114" s="3"/>
     </row>
@@ -3647,17 +3712,17 @@
       <c r="A115" s="2">
         <v>110</v>
       </c>
-      <c r="B115" s="7">
-        <v>83284</v>
+      <c r="B115" s="5">
+        <v>81799</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E115" s="3">
-        <v>11173</v>
+        <v>11170</v>
       </c>
       <c r="F115" s="3"/>
     </row>
@@ -3665,11 +3730,11 @@
       <c r="A116" s="2">
         <v>111</v>
       </c>
-      <c r="B116" s="7">
-        <v>83286</v>
+      <c r="B116" s="5">
+        <v>81800</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>159</v>
@@ -3683,17 +3748,17 @@
       <c r="A117" s="2">
         <v>112</v>
       </c>
-      <c r="B117" s="7">
-        <v>83374</v>
+      <c r="B117" s="5">
+        <v>81801</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E117" s="3">
-        <v>11188</v>
+        <v>11169</v>
       </c>
       <c r="F117" s="3"/>
     </row>
@@ -3701,17 +3766,17 @@
       <c r="A118" s="2">
         <v>113</v>
       </c>
-      <c r="B118" s="7">
-        <v>83376</v>
+      <c r="B118" s="5">
+        <v>81916</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E118" s="3">
-        <v>11180</v>
+        <v>11168</v>
       </c>
       <c r="F118" s="3"/>
     </row>
@@ -3719,17 +3784,17 @@
       <c r="A119" s="2">
         <v>114</v>
       </c>
-      <c r="B119" s="7">
-        <v>83377</v>
+      <c r="B119" s="5">
+        <v>81918</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E119" s="3">
-        <v>11182</v>
+        <v>11183</v>
       </c>
       <c r="F119" s="3"/>
     </row>
@@ -3737,17 +3802,17 @@
       <c r="A120" s="2">
         <v>115</v>
       </c>
-      <c r="B120" s="7">
-        <v>83378</v>
+      <c r="B120" s="5">
+        <v>81920</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="E120" s="3">
-        <v>11182</v>
+        <v>11167</v>
       </c>
       <c r="F120" s="3"/>
     </row>
@@ -3755,17 +3820,17 @@
       <c r="A121" s="2">
         <v>116</v>
       </c>
-      <c r="B121" s="7">
-        <v>83381</v>
+      <c r="B121" s="5">
+        <v>81922</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E121" s="3">
-        <v>11182</v>
+        <v>11166</v>
       </c>
       <c r="F121" s="3"/>
     </row>
@@ -3773,17 +3838,17 @@
       <c r="A122" s="2">
         <v>117</v>
       </c>
-      <c r="B122" s="7">
-        <v>83382</v>
+      <c r="B122" s="5">
+        <v>81929</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="E122" s="3">
-        <v>11411</v>
+        <v>11410</v>
       </c>
       <c r="F122" s="3"/>
     </row>
@@ -3791,17 +3856,17 @@
       <c r="A123" s="2">
         <v>118</v>
       </c>
-      <c r="B123" s="7">
-        <v>83486</v>
+      <c r="B123" s="5">
+        <v>81932</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E123" s="3">
-        <v>13487</v>
+        <v>11165</v>
       </c>
       <c r="F123" s="3"/>
     </row>
@@ -3809,17 +3874,17 @@
       <c r="A124" s="2">
         <v>119</v>
       </c>
-      <c r="B124" s="7">
-        <v>83506</v>
+      <c r="B124" s="5">
+        <v>81935</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E124" s="3">
-        <v>13488</v>
+        <v>11164</v>
       </c>
       <c r="F124" s="3"/>
     </row>
@@ -3827,17 +3892,17 @@
       <c r="A125" s="2">
         <v>120</v>
       </c>
-      <c r="B125" s="7">
-        <v>83507</v>
+      <c r="B125" s="5">
+        <v>81937</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E125" s="3">
-        <v>13488</v>
+        <v>11164</v>
       </c>
       <c r="F125" s="3"/>
     </row>
@@ -3845,17 +3910,17 @@
       <c r="A126" s="2">
         <v>121</v>
       </c>
-      <c r="B126" s="7">
-        <v>83513</v>
+      <c r="B126" s="5">
+        <v>81938</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E126" s="3">
-        <v>13489</v>
+        <v>11163</v>
       </c>
       <c r="F126" s="3"/>
     </row>
@@ -3863,17 +3928,17 @@
       <c r="A127" s="2">
         <v>122</v>
       </c>
-      <c r="B127" s="7">
-        <v>83514</v>
+      <c r="B127" s="5">
+        <v>81939</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E127" s="3">
-        <v>13489</v>
+        <v>11163</v>
       </c>
       <c r="F127" s="3"/>
     </row>
@@ -3881,17 +3946,17 @@
       <c r="A128" s="2">
         <v>123</v>
       </c>
-      <c r="B128" s="7">
-        <v>83515</v>
+      <c r="B128" s="5">
+        <v>81942</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E128" s="3">
-        <v>13489</v>
+        <v>11162</v>
       </c>
       <c r="F128" s="3"/>
     </row>
@@ -3899,17 +3964,17 @@
       <c r="A129" s="2">
         <v>124</v>
       </c>
-      <c r="B129" s="7">
-        <v>83516</v>
+      <c r="B129" s="5">
+        <v>81943</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="E129" s="3">
-        <v>13489</v>
+        <v>11162</v>
       </c>
       <c r="F129" s="3"/>
     </row>
@@ -3917,17 +3982,17 @@
       <c r="A130" s="2">
         <v>125</v>
       </c>
-      <c r="B130" s="7">
-        <v>83518</v>
+      <c r="B130" s="5">
+        <v>81944</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="E130" s="3">
-        <v>13489</v>
+        <v>11161</v>
       </c>
       <c r="F130" s="3"/>
     </row>
@@ -3935,17 +4000,17 @@
       <c r="A131" s="2">
         <v>126</v>
       </c>
-      <c r="B131" s="7">
-        <v>83537</v>
+      <c r="B131" s="5">
+        <v>81945</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E131" s="3">
-        <v>13490</v>
+        <v>11161</v>
       </c>
       <c r="F131" s="3"/>
     </row>
@@ -3953,17 +4018,17 @@
       <c r="A132" s="2">
         <v>127</v>
       </c>
-      <c r="B132" s="7">
-        <v>87601</v>
+      <c r="B132" s="5">
+        <v>81949</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E132" s="3">
-        <v>11172</v>
+        <v>11159</v>
       </c>
       <c r="F132" s="3"/>
     </row>
@@ -3971,17 +4036,17 @@
       <c r="A133" s="2">
         <v>128</v>
       </c>
-      <c r="B133" s="7">
-        <v>87602</v>
+      <c r="B133" s="5">
+        <v>83198</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E133" s="3">
-        <v>11171</v>
+        <v>11181</v>
       </c>
       <c r="F133" s="3"/>
     </row>
@@ -3989,17 +4054,17 @@
       <c r="A134" s="2">
         <v>129</v>
       </c>
-      <c r="B134" s="7">
-        <v>87603</v>
+      <c r="B134" s="5">
+        <v>83284</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="E134" s="3">
-        <v>11171</v>
+        <v>11173</v>
       </c>
       <c r="F134" s="3"/>
     </row>
@@ -4007,17 +4072,17 @@
       <c r="A135" s="2">
         <v>130</v>
       </c>
-      <c r="B135" s="7">
-        <v>87604</v>
+      <c r="B135" s="5">
+        <v>83286</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="E135" s="3">
-        <v>11171</v>
+        <v>11170</v>
       </c>
       <c r="F135" s="3"/>
     </row>
@@ -4025,17 +4090,17 @@
       <c r="A136" s="2">
         <v>131</v>
       </c>
-      <c r="B136" s="7">
-        <v>87606</v>
+      <c r="B136" s="5">
+        <v>83374</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="E136" s="3">
-        <v>11176</v>
+        <v>11188</v>
       </c>
       <c r="F136" s="3"/>
     </row>
@@ -4043,17 +4108,17 @@
       <c r="A137" s="2">
         <v>132</v>
       </c>
-      <c r="B137" s="7">
-        <v>87609</v>
+      <c r="B137" s="5">
+        <v>83376</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E137" s="3">
-        <v>13491</v>
+        <v>11180</v>
       </c>
       <c r="F137" s="3"/>
     </row>
@@ -4061,17 +4126,17 @@
       <c r="A138" s="2">
         <v>133</v>
       </c>
-      <c r="B138" s="7">
-        <v>87611</v>
+      <c r="B138" s="5">
+        <v>83377</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>211</v>
+        <v>30</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E138" s="3">
-        <v>13492</v>
+        <v>11182</v>
       </c>
       <c r="F138" s="3"/>
     </row>
@@ -4079,17 +4144,17 @@
       <c r="A139" s="2">
         <v>134</v>
       </c>
-      <c r="B139" s="7">
-        <v>87612</v>
+      <c r="B139" s="5">
+        <v>83378</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E139" s="3">
-        <v>13493</v>
+        <v>11182</v>
       </c>
       <c r="F139" s="3"/>
     </row>
@@ -4097,17 +4162,17 @@
       <c r="A140" s="2">
         <v>135</v>
       </c>
-      <c r="B140" s="7">
-        <v>87614</v>
+      <c r="B140" s="5">
+        <v>83381</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E140" s="3">
-        <v>13494</v>
+        <v>11182</v>
       </c>
       <c r="F140" s="3"/>
     </row>
@@ -4115,17 +4180,17 @@
       <c r="A141" s="2">
         <v>136</v>
       </c>
-      <c r="B141" s="7">
-        <v>87615</v>
+      <c r="B141" s="5">
+        <v>83382</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="E141" s="3">
-        <v>13493</v>
+        <v>11411</v>
       </c>
       <c r="F141" s="3"/>
     </row>
@@ -4133,17 +4198,17 @@
       <c r="A142" s="2">
         <v>137</v>
       </c>
-      <c r="B142" s="7">
-        <v>87616</v>
+      <c r="B142" s="5">
+        <v>83486</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="E142" s="3">
-        <v>13495</v>
+        <v>13487</v>
       </c>
       <c r="F142" s="3"/>
     </row>
@@ -4151,17 +4216,17 @@
       <c r="A143" s="2">
         <v>138</v>
       </c>
-      <c r="B143" s="7">
-        <v>87618</v>
+      <c r="B143" s="5">
+        <v>83506</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="E143" s="3">
-        <v>13496</v>
+        <v>13488</v>
       </c>
       <c r="F143" s="3"/>
     </row>
@@ -4169,17 +4234,17 @@
       <c r="A144" s="2">
         <v>139</v>
       </c>
-      <c r="B144" s="7">
-        <v>87620</v>
+      <c r="B144" s="5">
+        <v>83507</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="E144" s="3">
-        <v>13497</v>
+        <v>13488</v>
       </c>
       <c r="F144" s="3"/>
     </row>
@@ -4187,17 +4252,17 @@
       <c r="A145" s="2">
         <v>140</v>
       </c>
-      <c r="B145" s="7">
-        <v>96745</v>
+      <c r="B145" s="5">
+        <v>83513</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="E145" s="3">
-        <v>11210</v>
+        <v>13489</v>
       </c>
       <c r="F145" s="3"/>
     </row>
@@ -4205,17 +4270,17 @@
       <c r="A146" s="2">
         <v>141</v>
       </c>
-      <c r="B146" s="7">
-        <v>96746</v>
+      <c r="B146" s="5">
+        <v>83514</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="E146" s="3">
-        <v>11211</v>
+        <v>13489</v>
       </c>
       <c r="F146" s="3"/>
     </row>
@@ -4223,17 +4288,17 @@
       <c r="A147" s="2">
         <v>142</v>
       </c>
-      <c r="B147" s="7">
-        <v>96747</v>
+      <c r="B147" s="5">
+        <v>83515</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E147" s="3">
-        <v>11212</v>
+        <v>13489</v>
       </c>
       <c r="F147" s="3"/>
     </row>
@@ -4241,17 +4306,17 @@
       <c r="A148" s="2">
         <v>143</v>
       </c>
-      <c r="B148" s="7">
-        <v>96748</v>
+      <c r="B148" s="5">
+        <v>83516</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E148" s="3">
-        <v>11213</v>
+        <v>13489</v>
       </c>
       <c r="F148" s="3"/>
     </row>
@@ -4259,17 +4324,17 @@
       <c r="A149" s="2">
         <v>144</v>
       </c>
-      <c r="B149" s="7">
-        <v>96749</v>
+      <c r="B149" s="5">
+        <v>83518</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="E149" s="3">
-        <v>11214</v>
+        <v>13489</v>
       </c>
       <c r="F149" s="3"/>
     </row>
@@ -4277,17 +4342,17 @@
       <c r="A150" s="2">
         <v>145</v>
       </c>
-      <c r="B150" s="7">
-        <v>96750</v>
+      <c r="B150" s="5">
+        <v>83537</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E150" s="3">
-        <v>11214</v>
+        <v>13490</v>
       </c>
       <c r="F150" s="3"/>
     </row>
@@ -4295,17 +4360,17 @@
       <c r="A151" s="2">
         <v>146</v>
       </c>
-      <c r="B151" s="7">
-        <v>96751</v>
+      <c r="B151" s="5">
+        <v>87601</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E151" s="3">
-        <v>11214</v>
+        <v>11172</v>
       </c>
       <c r="F151" s="3"/>
     </row>
@@ -4313,17 +4378,17 @@
       <c r="A152" s="2">
         <v>147</v>
       </c>
-      <c r="B152" s="7">
-        <v>96752</v>
+      <c r="B152" s="5">
+        <v>87602</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="E152" s="3">
-        <v>11214</v>
+        <v>11171</v>
       </c>
       <c r="F152" s="3"/>
     </row>
@@ -4331,17 +4396,17 @@
       <c r="A153" s="2">
         <v>148</v>
       </c>
-      <c r="B153" s="7">
-        <v>96753</v>
+      <c r="B153" s="5">
+        <v>87603</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="E153" s="3">
-        <v>11214</v>
+        <v>11171</v>
       </c>
       <c r="F153" s="3"/>
     </row>
@@ -4349,17 +4414,17 @@
       <c r="A154" s="2">
         <v>149</v>
       </c>
-      <c r="B154" s="7">
-        <v>96754</v>
+      <c r="B154" s="5">
+        <v>87604</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="E154" s="3">
-        <v>11215</v>
+        <v>11171</v>
       </c>
       <c r="F154" s="3"/>
     </row>
@@ -4367,17 +4432,17 @@
       <c r="A155" s="2">
         <v>150</v>
       </c>
-      <c r="B155" s="7">
-        <v>96755</v>
+      <c r="B155" s="5">
+        <v>87606</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="E155" s="3">
-        <v>11412</v>
+        <v>11176</v>
       </c>
       <c r="F155" s="3"/>
     </row>
@@ -4385,17 +4450,17 @@
       <c r="A156" s="2">
         <v>151</v>
       </c>
-      <c r="B156" s="7">
-        <v>102481</v>
+      <c r="B156" s="5">
+        <v>87609</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E156" s="3">
-        <v>11413</v>
+        <v>13491</v>
       </c>
       <c r="F156" s="3"/>
     </row>
@@ -4403,17 +4468,17 @@
       <c r="A157" s="2">
         <v>152</v>
       </c>
-      <c r="B157" s="7">
-        <v>102482</v>
+      <c r="B157" s="5">
+        <v>87611</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="E157" s="3">
-        <v>11414</v>
+        <v>13492</v>
       </c>
       <c r="F157" s="3"/>
     </row>
@@ -4421,17 +4486,17 @@
       <c r="A158" s="2">
         <v>153</v>
       </c>
-      <c r="B158" s="7">
-        <v>102483</v>
+      <c r="B158" s="5">
+        <v>87612</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="E158" s="3">
-        <v>11415</v>
+        <v>13493</v>
       </c>
       <c r="F158" s="3"/>
     </row>
@@ -4439,17 +4504,17 @@
       <c r="A159" s="2">
         <v>154</v>
       </c>
-      <c r="B159" s="7">
-        <v>102484</v>
+      <c r="B159" s="5">
+        <v>87614</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="E159" s="3">
-        <v>11416</v>
+        <v>13494</v>
       </c>
       <c r="F159" s="3"/>
     </row>
@@ -4457,17 +4522,17 @@
       <c r="A160" s="2">
         <v>155</v>
       </c>
-      <c r="B160" s="7">
-        <v>102487</v>
+      <c r="B160" s="5">
+        <v>87615</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E160" s="3">
-        <v>13498</v>
+        <v>13493</v>
       </c>
       <c r="F160" s="3"/>
     </row>
@@ -4475,23 +4540,365 @@
       <c r="A161" s="2">
         <v>156</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="5">
+        <v>87616</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E161" s="3">
+        <v>13495</v>
+      </c>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>157</v>
+      </c>
+      <c r="B162" s="5">
+        <v>87618</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E162" s="3">
+        <v>13496</v>
+      </c>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>158</v>
+      </c>
+      <c r="B163" s="5">
+        <v>87620</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" s="3">
+        <v>13497</v>
+      </c>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>159</v>
+      </c>
+      <c r="B164" s="5">
+        <v>96745</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" s="3">
+        <v>11210</v>
+      </c>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>160</v>
+      </c>
+      <c r="B165" s="5">
+        <v>96746</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E165" s="3">
+        <v>11211</v>
+      </c>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>161</v>
+      </c>
+      <c r="B166" s="5">
+        <v>96747</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E166" s="3">
+        <v>11212</v>
+      </c>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>162</v>
+      </c>
+      <c r="B167" s="5">
+        <v>96748</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E167" s="3">
+        <v>11213</v>
+      </c>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>163</v>
+      </c>
+      <c r="B168" s="5">
+        <v>96749</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E168" s="3">
+        <v>11214</v>
+      </c>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>164</v>
+      </c>
+      <c r="B169" s="5">
+        <v>96750</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E169" s="3">
+        <v>11214</v>
+      </c>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>165</v>
+      </c>
+      <c r="B170" s="5">
+        <v>96751</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E170" s="3">
+        <v>11214</v>
+      </c>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>166</v>
+      </c>
+      <c r="B171" s="5">
+        <v>96752</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="3">
+        <v>11214</v>
+      </c>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>167</v>
+      </c>
+      <c r="B172" s="5">
+        <v>96753</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E172" s="3">
+        <v>11214</v>
+      </c>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>168</v>
+      </c>
+      <c r="B173" s="5">
+        <v>96754</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E173" s="3">
+        <v>11215</v>
+      </c>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>169</v>
+      </c>
+      <c r="B174" s="5">
+        <v>96755</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E174" s="3">
+        <v>11412</v>
+      </c>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>170</v>
+      </c>
+      <c r="B175" s="5">
+        <v>102481</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E175" s="3">
+        <v>11413</v>
+      </c>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>171</v>
+      </c>
+      <c r="B176" s="5">
+        <v>102482</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176" s="3">
+        <v>11414</v>
+      </c>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>172</v>
+      </c>
+      <c r="B177" s="5">
+        <v>102483</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E177" s="3">
+        <v>11415</v>
+      </c>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>173</v>
+      </c>
+      <c r="B178" s="5">
+        <v>102484</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E178" s="3">
+        <v>11416</v>
+      </c>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>174</v>
+      </c>
+      <c r="B179" s="5">
+        <v>102487</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E179" s="3">
+        <v>13498</v>
+      </c>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>175</v>
+      </c>
+      <c r="B180" s="5">
         <v>102494</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E180" s="3">
         <v>13496</v>
       </c>
-      <c r="F161" s="3"/>
+      <c r="F180" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="B6:B161">
-    <sortCondition ref="B5"/>
+  <sortState ref="B6:F182">
+    <sortCondition ref="B6"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:F2"/>
